--- a/Document/設計書/0_設計書パーツ/画面設計書.xlsx
+++ b/Document/設計書/0_設計書パーツ/画面設計書.xlsx
@@ -1000,6 +1000,638 @@
               <a:ea typeface="メイリオ"/>
             </a:rPr>
             <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="5939790"/>
+          <a:ext cx="10058400" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="図形 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465320" y="6158865"/>
+          <a:ext cx="2609850" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキストボックス 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4436745" y="6063615"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="図形 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083945" y="7501890"/>
+          <a:ext cx="2124075" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキストボックス 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1055370" y="7406640"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキストボックス 11"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="7492365"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキストボックス 12"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1693545" y="7501890"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキストボックス 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1093470" y="7816215"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキストボックス 14"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1169670" y="8349615"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-4</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
             <a:solidFill>
@@ -1283,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>

--- a/Document/設計書/0_設計書パーツ/画面設計書.xlsx
+++ b/Document/設計書/0_設計書パーツ/画面設計書.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.191.55897"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="1" r:id="rId1"/>
-    <sheet name="SHEET2" sheetId="2" r:id="rId2"/>
+    <sheet name="helth_info" sheetId="2" r:id="rId2"/>
     <sheet name="SHEET3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <name val="メイリオ"/>
@@ -159,6 +159,12 @@
       <sz val="12.0"/>
       <name val="メイリオ"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="メイリオ"/>
+      <color theme="5"/>
     </font>
     <font>
       <b/>
@@ -376,7 +382,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -391,7 +396,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -400,7 +404,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -409,7 +412,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -418,7 +420,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -433,7 +434,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -448,7 +448,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -463,7 +462,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -472,7 +470,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -483,7 +480,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -714,7 +710,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="図 1"/>
+        <xdr:cNvPr id="1" name="図 1" descr="xl/media/OImage3882702730.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -777,7 +773,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="sysDot"/>
+          <a:prstDash val="dot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -913,7 +909,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="sysDot"/>
+          <a:prstDash val="dot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -1030,7 +1026,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 6"/>
+        <xdr:cNvPr id="6" name="図 6" descr="xl/media/OImage2309802011.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1093,7 +1089,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="sysDot"/>
+          <a:prstDash val="dot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -1139,6 +1135,1907 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4436745" y="6063615"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="図形 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083945" y="7501890"/>
+          <a:ext cx="2124075" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキストボックス 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1055370" y="7406640"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキストボックス 11"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="7492365"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>4-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキストボックス 12"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1693545" y="7501890"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>4-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキストボックス 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1093470" y="7816215"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>4-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキストボックス 14"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1169670" y="8349615"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>4-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 15" descr="xl/media/OImage2993995692.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="9902190"/>
+          <a:ext cx="10058400" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="図形 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4398645" y="9978390"/>
+          <a:ext cx="2609850" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキストボックス 17"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4370070" y="9883140"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="図形 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="712470" y="10940415"/>
+          <a:ext cx="4962525" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキストボックス 19"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683895" y="10845165"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキストボックス 20"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="864870" y="10940415"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>6-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキストボックス 21"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4684395" y="10949940"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>6-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキストボックス 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="874395" y="11254740"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>6-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキストボックス 23"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="883920" y="11721465"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>6-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 24" descr="xl/media/OImage3878974173.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="13102590"/>
+          <a:ext cx="10058400" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="図形 25"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="14026515"/>
+          <a:ext cx="3228975" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキストボックス 26"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645795" y="13931265"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="図形 27"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4036695" y="14036040"/>
+          <a:ext cx="3228975" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキストボックス 28"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008120" y="13940790"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="図形 29"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7399020" y="14045565"/>
+          <a:ext cx="3228975" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキストボックス 30"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7370445" y="13950315"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 31" descr="xl/media/OImage3915938174.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="17522190"/>
+          <a:ext cx="10058400" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="図形 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4951095" y="21046440"/>
+          <a:ext cx="1400175" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキストボックス 33"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4922520" y="20951190"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="329565"/>
+          <a:ext cx="10058400" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="図形 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="712470" y="1015365"/>
+          <a:ext cx="5334000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683895" y="920115"/>
           <a:ext cx="600075" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -1197,28 +3094,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="図形 9"/>
+        <xdr:cNvPr id="4" name="図形 4"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1083945" y="7501890"/>
-          <a:ext cx="2124075" cy="1714500"/>
+          <a:off x="2369820" y="1739265"/>
+          <a:ext cx="2419350" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1229,7 +3126,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="sysDot"/>
+          <a:prstDash val="dot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -1254,28 +3151,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキストボックス 10"/>
+        <xdr:cNvPr id="5" name="テキストボックス 5"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1055370" y="7406640"/>
-          <a:ext cx="600075" cy="485775"/>
+          <a:off x="2341245" y="1644015"/>
+          <a:ext cx="276225" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1334,27 +3231,84 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキストボックス 11"/>
+        <xdr:cNvPr id="6" name="図形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="960120" y="2434590"/>
+          <a:ext cx="4257675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキストボックス 7"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1226820" y="7492365"/>
-          <a:ext cx="600075" cy="485775"/>
+          <a:off x="931545" y="2339340"/>
+          <a:ext cx="485775" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1394,7 +3348,7 @@
               <a:latin typeface="メイリオ"/>
               <a:ea typeface="メイリオ"/>
             </a:rPr>
-            <a:t>2-1</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
             <a:solidFill>
@@ -1412,28 +3366,85 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキストボックス 12"/>
+        <xdr:cNvPr id="8" name="図形 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645795" y="3120390"/>
+          <a:ext cx="390525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキストボックス 9"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1693545" y="7501890"/>
-          <a:ext cx="600075" cy="485775"/>
+          <a:off x="617220" y="3025140"/>
+          <a:ext cx="485775" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -1473,165 +3484,7 @@
               <a:latin typeface="メイリオ"/>
               <a:ea typeface="メイリオ"/>
             </a:rPr>
-            <a:t>2-2</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="74902"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="メイリオ"/>
-            <a:ea typeface="メイリオ"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキストボックス 13"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1093470" y="7816215"/>
-          <a:ext cx="600075" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="74902"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ"/>
-              <a:ea typeface="メイリオ"/>
-            </a:rPr>
-            <a:t>2-3</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="74902"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="メイリオ"/>
-            <a:ea typeface="メイリオ"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキストボックス 14"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1169670" y="8349615"/>
-          <a:ext cx="600075" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:noFill/>
-          <a:prstDash/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="74902"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ"/>
-              <a:ea typeface="メイリオ"/>
-            </a:rPr>
-            <a:t>2-4</a:t>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
             <a:solidFill>
@@ -1915,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R114" sqref="R114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
@@ -1935,15 +3788,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/設計書/0_設計書パーツ/画面設計書.xlsx
+++ b/Document/設計書/0_設計書パーツ/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.191.55897"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="1" r:id="rId1"/>
@@ -2927,7 +2927,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="図 1"/>
+        <xdr:cNvPr id="1" name="図 1" descr="xl/media/OImage2862479295.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3485,6 +3485,660 @@
               <a:ea typeface="メイリオ"/>
             </a:rPr>
             <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 10" descr="xl/media/OImage3519011376.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="3958590"/>
+          <a:ext cx="10058400" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="図形 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="798195" y="4101465"/>
+          <a:ext cx="3057525" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキストボックス 12"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="779145" y="3996690"/>
+          <a:ext cx="485775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキストボックス 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1207770" y="4044315"/>
+          <a:ext cx="485775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキストボックス 14"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="836295" y="4358640"/>
+          <a:ext cx="485775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキストボックス 15"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="4939665"/>
+          <a:ext cx="485775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキストボックス 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="779145" y="6054090"/>
+          <a:ext cx="485775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキストボックス 17"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788670" y="6825615"/>
+          <a:ext cx="485775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5-5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキストボックス 18"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3007995" y="6806565"/>
+          <a:ext cx="485775" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5-6</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
             <a:solidFill>
@@ -3768,7 +4422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="R114" sqref="R114"/>
     </sheetView>
   </sheetViews>
@@ -3789,7 +4443,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>

--- a/Document/設計書/0_設計書パーツ/画面設計書.xlsx
+++ b/Document/設計書/0_設計書パーツ/画面設計書.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.191.55897"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="1" r:id="rId1"/>
     <sheet name="helth_info" sheetId="2" r:id="rId2"/>
-    <sheet name="SHEET3" sheetId="3" r:id="rId3"/>
+    <sheet name="execise" sheetId="3" r:id="rId3"/>
+    <sheet name="muscle_tr" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -23,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <name val="メイリオ"/>
@@ -172,8 +173,18 @@
       <name val="メイリオ"/>
       <color theme="5"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="メイリオ"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="メイリオ"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +377,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -631,11 +654,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4152,6 +4181,1416 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="図 1" descr="xl/media/OImage3508748977.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="148590"/>
+          <a:ext cx="6991350" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="図形 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1160145" y="1386840"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキストボックス 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1131570" y="1291590"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="図形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4522470" y="1396365"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキストボックス 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4493895" y="1301115"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="図形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1179195" y="1939290"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキストボックス 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150620" y="1844040"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="図形 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4541520" y="1948815"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキストボックス 9"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4512945" y="1853565"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="図形 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4551045" y="2491740"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキストボックス 11"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4522470" y="2396490"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="図形 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1207770" y="2501265"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキストボックス 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1179195" y="2406015"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 14" descr="xl/media/OImage3526096098.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="3501390"/>
+          <a:ext cx="6800850" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="図形 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="5625465"/>
+          <a:ext cx="1685925" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキストボックス 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645795" y="5530215"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="図形 17"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3198495" y="5634990"/>
+          <a:ext cx="1685925" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキストボックス 18"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169920" y="5539740"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="図形 19"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="5644515"/>
+          <a:ext cx="1685925" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキストボックス 20"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5770245" y="5549265"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="148590"/>
+          <a:ext cx="8686800" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674370" y="5634990"/>
+          <a:ext cx="6105525" cy="5867400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4442,7 +5881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -4467,9 +5906,33 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.000000"/>
+  <cols>
+    <col min="1" max="16384" style="3" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/設計書/0_設計書パーツ/画面設計書.xlsx
+++ b/Document/設計書/0_設計書パーツ/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.191.55897"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="1" r:id="rId1"/>
@@ -168,12 +168,6 @@
       <color theme="5"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <name val="メイリオ"/>
-      <color theme="5"/>
-    </font>
-    <font>
       <sz val="9.6"/>
       <name val="メイリオ"/>
       <color theme="1"/>
@@ -183,8 +177,14 @@
       <name val="メイリオ"/>
       <color rgb="FFFFFFFF"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="メイリオ"/>
+      <color theme="5"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -654,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,9 +656,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,7 +793,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -938,7 +929,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -1118,7 +1109,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -1254,7 +1245,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -1750,7 +1741,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -1886,7 +1877,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -2382,7 +2373,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -2518,7 +2509,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -2654,7 +2645,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -2834,7 +2825,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -3019,7 +3010,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -3155,7 +3146,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -3291,7 +3282,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -3427,7 +3418,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -3607,7 +3598,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -4266,7 +4257,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -4402,7 +4393,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -4538,7 +4529,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -4674,7 +4665,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -4810,7 +4801,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -4946,7 +4937,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -5126,7 +5117,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -5262,7 +5253,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -5398,7 +5389,7 @@
               <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="dot"/>
+          <a:prstDash val="sysDot"/>
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
@@ -5520,7 +5511,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="図 1"/>
+        <xdr:cNvPr id="1" name="図 1" descr="xl/media/OImage3426404259.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5564,7 +5555,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 2"/>
+        <xdr:cNvPr id="2" name="図 2" descr="xl/media/OImage34390073710.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5591,6 +5582,1953 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="図形 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="158115"/>
+          <a:ext cx="9010650" cy="4581525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキストボックス 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="512445" y="62865"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="図形 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="510540"/>
+          <a:ext cx="2924175" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキストボックス 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="626745" y="415290"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="図形 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="588645" y="1053465"/>
+          <a:ext cx="3733800" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキストボックス 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560070" y="958215"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="図形 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="626745" y="1805940"/>
+          <a:ext cx="1457325" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキストボックス 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598170" y="1710690"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="図形 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3608070" y="1863090"/>
+          <a:ext cx="666750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキストボックス 12"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3579495" y="1767840"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="図形 13"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6055995" y="1815465"/>
+          <a:ext cx="1009650" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキストボックス 14"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6027420" y="1720215"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1-5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="図形 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8494395" y="1824990"/>
+          <a:ext cx="714375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキストボックス 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8475345" y="1729740"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1-6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="図形 17"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7970520" y="3815715"/>
+          <a:ext cx="1219200" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキストボックス 18"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7951470" y="3720465"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>1-7</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="図形 19"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1007745" y="5806440"/>
+          <a:ext cx="5486400" cy="5534025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキストボックス 20"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="979170" y="5711190"/>
+          <a:ext cx="600075" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="図形 21"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1350645" y="5854065"/>
+          <a:ext cx="1562100" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキストボックス 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322070" y="5758815"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="図形 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3036570" y="5863590"/>
+          <a:ext cx="1123950" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキストボックス 24"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3007995" y="5768340"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="図形 25"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1283970" y="6501765"/>
+          <a:ext cx="4991100" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキストボックス 26"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1264920" y="6387465"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3141345" y="7482840"/>
+          <a:ext cx="2228850" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="図形 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1217295" y="9683115"/>
+          <a:ext cx="1152525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキストボックス 29"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188720" y="9587865"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="図形 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1207770" y="10292715"/>
+          <a:ext cx="1952625" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:shade val="74902"/>
+              <a:alpha val="100000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキストボックス 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1179195" y="10197465"/>
+          <a:ext cx="638175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="89535" tIns="46355" rIns="89535" bIns="46355" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="74902"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>2-5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="74902"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5927,7 +7865,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
   <cols>
-    <col min="1" max="16384" style="3" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
